--- a/biology/Botanique/Sorghum_arundinaceum/Sorghum_arundinaceum.xlsx
+++ b/biology/Botanique/Sorghum_arundinaceum/Sorghum_arundinaceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sorghum arundinaceum (millet sauvage, maïs cafre) est une espèce de plantes herbacées annuelles de la famille des Poaceae (Graminées), originaire d'Afrique.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life :
 Andropogon arundinaceus Willd.
 Andropogon arundinaceus var. effusus
 Andropogon halepensis var. astoloniferus
@@ -579,11 +598,7 @@
 Sorghum verticilliflorum var. infrequens
 Sorghum verticilliflorum var. ornatum
 Sorghum vogelianum (Piper) Stapf
-Liste des variétés
-Selon Tropicos                                           (11 sept. 2013)[2] :
-variété Sorghum verticilliflorum var. infrequens Snowden
-variété Sorghum verticilliflorum var. ornatum Snowden
-variété Sorghum verticilliflorum var. verticilliflorum</t>
+</t>
         </is>
       </c>
     </row>
@@ -608,14 +623,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (11 sept. 2013) :
+variété Sorghum verticilliflorum var. infrequens Snowden
+variété Sorghum verticilliflorum var. ornatum Snowden
+variété Sorghum verticilliflorum var. verticilliflorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sorghum_arundinaceum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sorghum_arundinaceum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition d'origine de Sorghum arundinaceum comprend la quasi-totalité de l'Afrique subsaharienne ainsi que l'Égypte en Afrique du Nord.
-L'espèce s'est naturalisée dans de nombreuses régions tropicales, en Inde, en Australie, et dans les Amériques[3].
-Cette plante est une adventice commune dans les plantations de canne à sucre de l'île de La Réunion[4].
+L'espèce s'est naturalisée dans de nombreuses régions tropicales, en Inde, en Australie, et dans les Amériques.
+Cette plante est une adventice commune dans les plantations de canne à sucre de l'île de La Réunion.
 </t>
         </is>
       </c>
